--- a/report_ca_nhan/NV-42 Cô Na giúp việc 7-2024.xlsx
+++ b/report_ca_nhan/NV-42 Cô Na giúp việc 7-2024.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,98 +513,147 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tổng lương</t>
         </is>
       </c>
     </row>

--- a/report_ca_nhan/NV-42 Cô Na giúp việc 7-2024.xlsx
+++ b/report_ca_nhan/NV-42 Cô Na giúp việc 7-2024.xlsx
@@ -443,7 +443,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Danh mục</t>
+          <t>Danh mục lương</t>
         </is>
       </c>
     </row>
